--- a/game-graphix/checklist.xlsx
+++ b/game-graphix/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/game-graphix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35AA2121-E65B-1549-8EBD-8EF9051526D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74500810-FFBD-EF48-8E64-EE64D238502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3B3B1DD2-774A-4C4D-BB85-93BFA9DA2B41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{3B3B1DD2-774A-4C4D-BB85-93BFA9DA2B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>year</t>
   </si>
@@ -147,6 +148,15 @@
   </si>
   <si>
     <t>Dainihonkaiga</t>
+  </si>
+  <si>
+    <t>エクスカリバー</t>
+  </si>
+  <si>
+    <t>Excallibur</t>
+  </si>
+  <si>
+    <t>excallibur.jpg</t>
   </si>
 </sst>
 </file>
@@ -507,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BA72B0-9C6C-784F-8F8C-BC41B8E0746B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +753,7 @@
         <v>1987</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" ref="B3:B31" si="2">_xlfn.CONCAT("Game Graphix Vol. ", LEFT(E11, 2))</f>
+        <f t="shared" ref="B11:B31" si="2">_xlfn.CONCAT("Game Graphix Vol. ", LEFT(E11, 2))</f>
         <v>Game Graphix Vol. 10</v>
       </c>
       <c r="C11" t="str">
@@ -1197,6 +1207,26 @@
         <v>35</v>
       </c>
       <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1987</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
         <v>36</v>
       </c>
     </row>
